--- a/Project/data/excel/buffConfig.xlsx
+++ b/Project/data/excel/buffConfig.xlsx
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>int</t>
   </si>
@@ -306,6 +306,21 @@
   </si>
   <si>
     <t>装备-淬毒长矛</t>
+  </si>
+  <si>
+    <t>HP+3</t>
+  </si>
+  <si>
+    <t>攻击+1</t>
+  </si>
+  <si>
+    <t>防御+1</t>
+  </si>
+  <si>
+    <t>速度+1</t>
+  </si>
+  <si>
+    <t>幸运+1</t>
   </si>
 </sst>
 </file>
@@ -1477,13 +1492,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -1628,6 +1643,76 @@
     <row r="8" spans="1:1">
       <c r="A8">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>1003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>1005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Project/data/excel/buffConfig.xlsx
+++ b/Project/data/excel/buffConfig.xlsx
@@ -42,196 +42,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>邓煊:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字段类型
-这个类型决定了用哪个类型转换器解析</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>邓煊:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字段类型
-这个类型决定了用哪个类型转换器解析</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>邓煊:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字段类型
-这个类型决定了用哪个类型转换器解析</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>邓煊:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字段类型
-这个类型决定了用哪个类型转换器解析</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>邓煊:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字段类型
-这个类型决定了用哪个类型转换器解析</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>邓煊:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字段类型
-这个类型决定了用哪个类型转换器解析</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>邓煊:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字段类型
-这个类型决定了用哪个类型转换器解析</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>邓煊:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字段类型
-这个类型决定了用哪个类型转换器解析</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>int</t>
   </si>
@@ -305,7 +121,193 @@
     <t>CRI</t>
   </si>
   <si>
-    <t>装备-淬毒长矛</t>
+    <t>铁刺锤</t>
+  </si>
+  <si>
+    <t>攻击+4，速度-1</t>
+  </si>
+  <si>
+    <t>木刺锤</t>
+  </si>
+  <si>
+    <t>攻击+3</t>
+  </si>
+  <si>
+    <t>铁斧</t>
+  </si>
+  <si>
+    <t>攻击+3，防御+1，速度-1</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>攻击+2，幸运+1</t>
+  </si>
+  <si>
+    <t>小匕首</t>
+  </si>
+  <si>
+    <t>攻击+1，速度+2</t>
+  </si>
+  <si>
+    <t>玻璃杖</t>
+  </si>
+  <si>
+    <t>速度+3，幸运+3</t>
+  </si>
+  <si>
+    <t>链锤</t>
+  </si>
+  <si>
+    <t>防御+3，速度+3</t>
+  </si>
+  <si>
+    <t>手枪</t>
+  </si>
+  <si>
+    <t>攻击+12，攻击6次后损坏</t>
+  </si>
+  <si>
+    <t>巨矛</t>
+  </si>
+  <si>
+    <t>攻击+3，防御+2</t>
+  </si>
+  <si>
+    <t>骨头杖</t>
+  </si>
+  <si>
+    <t>攻击+10，对亡灵伤害+100%</t>
+  </si>
+  <si>
+    <t>黄金弓</t>
+  </si>
+  <si>
+    <t>攻击+3，速度+3
+击杀敌人获得X金币</t>
+  </si>
+  <si>
+    <t>火刀</t>
+  </si>
+  <si>
+    <t>攻击+5，速度+3，攻击引燃敌人
+引燃：每回合生命-1，持续3回合</t>
+  </si>
+  <si>
+    <t>“拐杖糖”</t>
+  </si>
+  <si>
+    <t>攻击+5，防御-5
+攻击使生命最大值+1</t>
+  </si>
+  <si>
+    <t>猎龙巨斧</t>
+  </si>
+  <si>
+    <t>攻击+40，速度-40</t>
+  </si>
+  <si>
+    <t>皮甲</t>
+  </si>
+  <si>
+    <t>防御+2，速度-1</t>
+  </si>
+  <si>
+    <t>银甲</t>
+  </si>
+  <si>
+    <t>防御+4，速度-2</t>
+  </si>
+  <si>
+    <t>金甲</t>
+  </si>
+  <si>
+    <t>防御+8，速度-3</t>
+  </si>
+  <si>
+    <t>火龙甲</t>
+  </si>
+  <si>
+    <t>防御+12，速度-4，受到伤害时反弹5伤害</t>
+  </si>
+  <si>
+    <t>布鞋</t>
+  </si>
+  <si>
+    <t>速度+2</t>
+  </si>
+  <si>
+    <t>绿鞋</t>
+  </si>
+  <si>
+    <t>速度+4，防御+1</t>
+  </si>
+  <si>
+    <t>运动鞋</t>
+  </si>
+  <si>
+    <t>速度+7</t>
+  </si>
+  <si>
+    <t>魔法鞋</t>
+  </si>
+  <si>
+    <t>速度+3，幸运+3，主动道具效果+100%</t>
+  </si>
+  <si>
+    <t>锅盖</t>
+  </si>
+  <si>
+    <t>防御+2</t>
+  </si>
+  <si>
+    <t>铁盾</t>
+  </si>
+  <si>
+    <t>防御+5</t>
+  </si>
+  <si>
+    <t>黄金盾</t>
+  </si>
+  <si>
+    <t>防御+4，幸运+3</t>
+  </si>
+  <si>
+    <t>龙骨盾</t>
+  </si>
+  <si>
+    <t>防御+12</t>
+  </si>
+  <si>
+    <t>火戒指</t>
+  </si>
+  <si>
+    <t>攻击时20%使敌人着火</t>
+  </si>
+  <si>
+    <t>石戒指</t>
+  </si>
+  <si>
+    <t>物理伤害+3</t>
+  </si>
+  <si>
+    <t>毒戒指</t>
+  </si>
+  <si>
+    <t>攻击时20%使敌人中毒</t>
+  </si>
+  <si>
+    <t>钻石戒指</t>
+  </si>
+  <si>
+    <t>受到持续伤害减少1回合</t>
+  </si>
+  <si>
+    <t>重生项链</t>
+  </si>
+  <si>
+    <t>受到致命伤害时，恢复所有生命并摧毁此物品</t>
   </si>
   <si>
     <t>HP+3</t>
@@ -961,12 +963,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1492,13 +1506,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.7583333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.0333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -1614,104 +1632,546 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="6" ht="27" spans="1:8">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:8">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="54" spans="1:8">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:7">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
         <v>1001</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>2001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>2002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>2003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>2004</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10">
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>3001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>3002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>3003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>3004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>4001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>4002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>4003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>4004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>4005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>100001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>100002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>1003</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11">
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>100003</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1004</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12">
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>100004</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>1005</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13">
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>100005</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
     </row>

--- a/Project/data/excel/buffConfig.xlsx
+++ b/Project/data/excel/buffConfig.xlsx
@@ -963,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,9 +973,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1508,8 +1505,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1820,7 +1817,7 @@
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F15">

--- a/Project/data/excel/buffConfig.xlsx
+++ b/Project/data/excel/buffConfig.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
   <si>
     <t>int</t>
   </si>
@@ -1503,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1515,7 +1515,7 @@
     <col min="3" max="3" width="21.0333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1549,11 +1549,8 @@
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1585,13 +1582,10 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1623,9 +1617,6 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
         <v>23</v>
       </c>
     </row>
